--- a/PYTHON/dados.xlsx
+++ b/PYTHON/dados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luana\Documents\GitHub\ALURA\PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C419126-F35D-4A88-8FA8-0A3EF6DB0932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85831578-0496-409C-901E-0EAF2E3AC3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16066" uniqueCount="4653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16066" uniqueCount="4654">
   <si>
     <t>EmpresaID</t>
   </si>
@@ -13984,6 +13984,9 @@
   </si>
   <si>
     <t>54480594X</t>
+  </si>
+  <si>
+    <t>Cargo</t>
   </si>
 </sst>
 </file>
@@ -14568,7 +14571,7 @@
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{C09D1B9A-D4FD-4161-BCA6-C65C063B4D99}" name="ID" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{DBE4AF7B-C32A-47B2-A73C-9873BEFE6A41}" name="Nome" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{7797F87E-1F10-4526-93CA-0BCB0458CB99}" name="FUNÇÃO" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{7797F87E-1F10-4526-93CA-0BCB0458CB99}" name="Cargo" dataDxfId="9"/>
     <tableColumn id="12" xr3:uid="{1C27BCA8-0C5E-4672-A733-72B7EEBD9A10}" name="DATA DE NASCIMENTO" dataDxfId="8"/>
     <tableColumn id="11" xr3:uid="{63745AC7-8764-4101-B2BF-E2C4CA894D5A}" name="CPF" dataDxfId="7"/>
     <tableColumn id="10" xr3:uid="{01267980-F970-4E63-ABC0-E8F08918C8C5}" name="RG" dataDxfId="6"/>
@@ -58499,7 +58502,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B20"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
@@ -58522,7 +58525,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4592</v>
+        <v>4653</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>2299</v>
